--- a/medicine/Psychotrope/Georg_Scheu/Georg_Scheu.xlsx
+++ b/medicine/Psychotrope/Georg_Scheu/Georg_Scheu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Justus Georg Scheu, né le 21 juin 1879 à Krefeld et mort le 2 novembre 1949 à Alzey, est un botaniste et ampélographe allemand[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justus Georg Scheu, né le 21 juin 1879 à Krefeld et mort le 2 novembre 1949 à Alzey, est un botaniste et ampélographe allemand.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il suit l’enseignement professionnel d’horticulture à Hanovre, puis travaille à Munich et Schierstein. À partir de 1900, il vit à Geisenheim.
 Il travaille en 1909 sur la première pépinière viticole à Hesse rhénane installée par le Chambre d'Agriculture du Alzey. Parmi ses principales fonctions figurent la fourniture de plants sains pour la viticulture et l'amélioration des méthodes d'élevage et de culture. Il s'intéresse aussi au clonage végétal, à l'élevage et à la culture sélective des nouvelles variétés à rendement supérieur et une meilleure qualité de fourniture.
@@ -545,7 +559,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Jancis Robinson, The Oxford companion to wine, Oxford New York, Oxford University Press, 2006, 813 p. (ISBN 978-0-198-60990-2, lire en ligne), p. 615.
